--- a/Apple Portfolio Project Excel NEW.xlsx
+++ b/Apple Portfolio Project Excel NEW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45c80bf5a8fca684/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49D19224-A928-4F06-9092-EA4736148927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{547B3F3F-E20C-4A32-9EE6-98685850D36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{27001F22-0875-7341-BE7C-AC3E445F50DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{27001F22-0875-7341-BE7C-AC3E445F50DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="5" r:id="rId1"/>
@@ -20,13 +20,13 @@
     <sheet name="Pivot Table" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_ApplePortfolioProjectExcel.xlsxTable2" hidden="1">Table2[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_WorkingSheetD1D200" hidden="1">'Working Sheet'!$D$1:$D$200</definedName>
+    <definedName name="_xlcn.WorksheetConnection_ApplePortfolioProjectExcel.xlsxTable21" hidden="1">Table2[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_WorkingSheetD1D2001" hidden="1">'Working Sheet'!$D$1:$D$200</definedName>
     <definedName name="Slicer_Sales_Method">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -78,7 +78,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table2">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ApplePortfolioProjectExcel.xlsxTable2"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_ApplePortfolioProjectExcel.xlsxTable21"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -87,7 +87,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_WorkingSheetD1D200"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_WorkingSheetD1D2001"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -372,7 +372,7 @@
   </cellStyles>
   <dxfs count="47">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
@@ -390,7 +390,7 @@
       <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
@@ -30146,10 +30146,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Christopher Turley" refreshedDate="45004.870729166665" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="199" xr:uid="{FAFB6E4F-5BE3-48A2-822C-13B7D5D2222A}">
   <cacheSource type="worksheet">
@@ -32771,7 +32767,367 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0902F45C-4FE2-4908-938F-14D72462073B}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEC34647-92F5-4BCB-8AE8-FBBDBF090B65}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="1" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Profit" fld="10" baseField="0" baseItem="0" numFmtId="166"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="17">
+    <chartFormat chart="0" format="38" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="39" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="40" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="41" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="42" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="47" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="48" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="49" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="50" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="51" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="52" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="43" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="44" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="53">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="54">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="55">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="56">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0902F45C-4FE2-4908-938F-14D72462073B}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="8">
   <location ref="A122:B128" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -33003,8 +33359,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1417BAD2-C242-4B18-87DF-217E21D718E7}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1417BAD2-C242-4B18-87DF-217E21D718E7}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A91:B116" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -33185,8 +33541,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{884B2568-7624-4888-AD8C-07EBDF624B32}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{884B2568-7624-4888-AD8C-07EBDF624B32}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A59:B85" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -33309,13 +33665,13 @@
     <dataField name="Sum of Quantity" fld="7" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="6">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -33348,8 +33704,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12707319-02A4-4EBC-9D43-F9DD1BC78514}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12707319-02A4-4EBC-9D43-F9DD1BC78514}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A28:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -33474,10 +33830,10 @@
     <dataField name="Sum of Profit" fld="10" baseField="0" baseItem="0" numFmtId="167"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -34113,366 +34469,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BEC34647-92F5-4BCB-8AE8-FBBDBF090B65}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:F10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="7">
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="1" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Profit" fld="10" baseField="0" baseItem="0" numFmtId="166"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="10">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="17">
-    <chartFormat chart="0" format="38" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="39" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="40" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="41" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="42" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="47" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="48" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="49" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="50" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="51" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="52" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="43" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="44" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="53">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="54">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="55">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="56">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Sales_Method" xr10:uid="{AFEC9284-B063-44EE-AD2B-FC1D6F39661E}" sourceName="Sales Method">
   <pivotTables>
@@ -34844,7 +34840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CA5C4D-FDE5-404B-AC74-43614D2A2B5F}">
   <dimension ref="A1:A56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
@@ -35038,7 +35034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1885EE-AEC1-4BBE-937A-C71122AC9CC0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
